--- a/src/main/java/selenium/academy/testdata/LoginData.xlsx
+++ b/src/main/java/selenium/academy/testdata/LoginData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmahe\eclipse-workspace\academy\src\main\java\selenium\academy\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04804AB1-9AA7-40C7-BEA5-75E45F5FB0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A67B3-62FA-4A2C-A450-CA378100B62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51E5687A-F001-4195-A7F5-07583581B3C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{51E5687A-F001-4195-A7F5-07583581B3C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Email</t>
   </si>
@@ -51,13 +52,82 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>Dummy@test.com</t>
   </si>
   <si>
     <t>Dummyp</t>
+  </si>
+  <si>
+    <t>best@test.com</t>
+  </si>
+  <si>
+    <t>test1234</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Thammanaveni</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Qwe213as#</t>
+  </si>
+  <si>
+    <t>Chilly</t>
+  </si>
+  <si>
+    <t>Flakes</t>
+  </si>
+  <si>
+    <t>Chilly.flakes@gmail.com</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2987123481</t>
+  </si>
+  <si>
+    <t>9876543211</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>tesTer123@</t>
   </si>
 </sst>
 </file>
@@ -123,11 +193,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F2F77-BFBC-4CB5-87E7-924C6E84C802}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,10 +562,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -501,10 +573,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -516,10 +588,128 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{9562724D-5125-464A-ABF3-6499E0AEFFAA}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{1165F294-9D56-4ED4-BBB7-CC2A48B09734}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{F64471B7-29D1-4E42-B4A8-A764C633C47F}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{91C4331C-36FD-43A1-94B8-DE889345E557}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{18895927-5866-4F36-8F3E-7F6BB788A884}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{D795BE00-C82B-44EE-888F-63A21B7D758C}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{D795BE00-C82B-44EE-888F-63A21B7D758C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DA1F87-28F3-458A-9F37-28F3AD294B60}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4C9548C4-8EA9-477E-9637-8AC2CC408A81}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Qwe213as@" xr:uid="{199C0A1F-FEC0-4D69-BED5-29CACD66BF19}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{F1DA7841-1E69-4051-AA68-9B79C342A55C}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{41880CBD-0E46-4C02-A789-57E8E7309B06}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{9BED9390-7FED-4AFD-8F77-26ED91167D84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>